--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 14.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
@@ -48,14 +42,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>нет данных</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>долг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00&quot; ₽&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -88,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -111,11 +127,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -130,13 +198,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,349 +507,196 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43386</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="2">
+        <v>718</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43015</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>512</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>308</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="2">
+        <v>415</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43274</v>
+        <v>43646</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>618</v>
-      </c>
-      <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>106</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>454.74</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
+        <v>514.23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>365</v>
-      </c>
-      <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
-        <v>57</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>123.69</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>43386</v>
+        <v>43712</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>718</v>
+        <v>932</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C4</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
+        <f>C6-C2</f>
+        <v>214</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="8">
         <f>D6*E6</f>
-        <v>450</v>
+        <v>960.86</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>1206.29</v>
+      </c>
+      <c r="H6" s="11">
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>415</v>
+        <v>516</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C5</f>
-        <v>50</v>
+        <f>C7-C3</f>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="13">
         <f>D7*E7</f>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43712</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>932</v>
-      </c>
-      <c r="D10" s="2">
-        <f>C10-C6</f>
-        <v>214</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>960.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>516</v>
-      </c>
-      <c r="D11" s="2">
-        <f>C11-C7</f>
-        <v>101</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
         <v>245.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(G4:G7)</f>
+        <v>1206.29</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H4:H7)</f>
+        <v>1206.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f>SUM(H8,-G8)</f>
+        <v>-5.999999999994543E-2</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 14.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\sputnikcss\slimexpert.github.io\sputnik\personal\ee\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>нет данных</t>
   </si>
   <si>
     <t>итого за период</t>
@@ -510,7 +507,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,8 +588,8 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="2">
+        <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -607,8 +604,8 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -671,7 +668,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(G4:G7)</f>
@@ -684,7 +681,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10">

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -66,8 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -201,9 +200,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -211,16 +207,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,7 +504,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,10 +541,10 @@
       <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -563,9 +560,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -577,9 +574,9 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -593,9 +590,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="10">
         <v>514.23</v>
       </c>
     </row>
@@ -609,9 +606,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -632,15 +629,15 @@
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <f>D6*E6</f>
         <v>960.86</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
         <v>1206.29</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>692</v>
       </c>
     </row>
@@ -659,32 +656,32 @@
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <f>D7*E7</f>
         <v>245.43</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>SUM(G4:G7)</f>
         <v>1206.29</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f>SUM(H4:H7)</f>
         <v>1206.23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <f>SUM(H8,-G8)</f>
         <v>-5.999999999994543E-2</v>
       </c>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -204,20 +204,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
         <f>C7-C3</f>
         <v>101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="14">

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>День/ ночь</t>
@@ -504,7 +501,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -539,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,9 +605,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -665,7 +660,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(G4:G7)</f>
@@ -678,7 +673,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9">

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,9 +204,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,7 +211,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,7 +505,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,9 +561,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -571,8 +575,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,8 +591,8 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="10">
         <v>514.23</v>
       </c>
@@ -603,9 +607,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -624,7 +628,7 @@
       <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>D6*E6</f>
         <v>960.86</v>
       </c>
@@ -651,12 +655,12 @@
       <c r="E7" s="6">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f>D7*E7</f>
         <v>245.43</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="9" t="s">

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\sputnikcss\slimexpert.github.io\sputnik\personal\ee\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,6 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тариф </t>
+  </si>
+  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -32,31 +33,25 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">Тариф </t>
-  </si>
-  <si>
-    <t>Т1</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>долг</t>
   </si>
   <si>
     <t>Т2</t>
-  </si>
-  <si>
-    <t>День/ ночь</t>
-  </si>
-  <si>
-    <t>Начислено по представленым показаниям и действующему тарифу</t>
-  </si>
-  <si>
-    <t>всего начислено к оплате</t>
-  </si>
-  <si>
-    <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>долг</t>
   </si>
 </sst>
 </file>
@@ -69,10 +64,11 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -97,27 +93,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -135,96 +116,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -247,44 +170,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -317,9 +240,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -358,142 +281,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -505,118 +452,113 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43386</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43386</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>718</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
         <v>415</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43646</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
         <v>0</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10">
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
         <v>514.23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>43712</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>932</v>
@@ -625,25 +567,25 @@
         <f>C6-C2</f>
         <v>214</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <f>D6*E6</f>
         <v>960.86</v>
       </c>
-      <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
-        <v>1206.29</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="G6" s="8">
+        <f>F6</f>
+        <v>960.86</v>
+      </c>
+      <c r="H6" s="8">
         <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>516</v>
@@ -652,45 +594,56 @@
         <f>C7-C3</f>
         <v>101</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="5">
         <f>D7*E7</f>
         <v>245.43</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
+      <c r="G7" s="8">
+        <f>F7</f>
+        <v>245.43</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G6:G7)</f>
+        <v>1206.29</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H4,H6)</f>
+        <v>1206.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9">
-        <f>SUM(G4:G7)</f>
-        <v>1206.29</v>
-      </c>
-      <c r="H8" s="9">
-        <f>SUM(H4:H7)</f>
-        <v>1206.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <f>SUM(H8,-G8)</f>
         <v>-5.999999999994543E-2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -702,11 +655,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -718,10 +669,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H6" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,8 +575,8 @@
         <v>960.86</v>
       </c>
       <c r="G6" s="8">
-        <f>F6</f>
-        <v>960.86</v>
+        <f>SUM(F6,F7)</f>
+        <v>1206.29</v>
       </c>
       <c r="H6" s="8">
         <v>692</v>
@@ -601,42 +601,93 @@
         <f>D7*E7</f>
         <v>245.43</v>
       </c>
-      <c r="G7" s="8">
-        <f>F7</f>
-        <v>245.43</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1057</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>125</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>588.75</v>
+      </c>
+      <c r="G8" s="8">
+        <f>F8</f>
+        <v>588.75</v>
+      </c>
+      <c r="H8" s="8">
+        <v>588.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>516</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G10" s="8">
         <f>SUM(G6:G7)</f>
         <v>1206.29</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H10" s="8">
         <f>SUM(H4,H6)</f>
         <v>1206.23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
         <v>-5.999999999994543E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H4:H6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,36 +659,87 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
+      <c r="A10" s="3">
+        <v>44090</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C6)</f>
+        <v>197</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>927.87</v>
       </c>
       <c r="G10" s="8">
-        <f>SUM(G6:G7)</f>
-        <v>1206.29</v>
+        <f>SUM(F10,F11)</f>
+        <v>1015.35</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H4,H6)</f>
-        <v>1206.23</v>
+        <v>430.92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>552</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C7)</f>
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>87.48</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>2810.39</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>2225.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
-        <v>-5.999999999994543E-2</v>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
+        <v>-584.48999999999978</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -120,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +149,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,7 +462,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,7 +581,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
         <v>960.86</v>
       </c>
       <c r="G6" s="8">
@@ -598,7 +608,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>245.43</v>
       </c>
       <c r="G7" s="8"/>
@@ -622,7 +632,7 @@
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>588.75</v>
       </c>
       <c r="G8" s="8">
@@ -649,7 +659,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="8">
@@ -668,20 +678,20 @@
       <c r="C10" s="2">
         <v>1129</v>
       </c>
-      <c r="D10" s="2">
-        <f>SUM(C10,-C6)</f>
-        <v>197</v>
+      <c r="D10" s="9">
+        <f>SUM(C10,-C8)</f>
+        <v>72</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
-        <v>927.87</v>
+        <f t="shared" si="0"/>
+        <v>339.12</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1015.35</v>
+        <v>426.6</v>
       </c>
       <c r="H10" s="8">
         <v>430.92</v>
@@ -695,7 +705,7 @@
       <c r="C11" s="2">
         <v>552</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <f>SUM(C11,-C7)</f>
         <v>36</v>
       </c>
@@ -703,7 +713,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>87.48</v>
       </c>
       <c r="G11" s="8"/>
@@ -720,7 +730,7 @@
       </c>
       <c r="G12" s="8">
         <f>SUM(G2:G11)</f>
-        <v>2810.39</v>
+        <v>2221.64</v>
       </c>
       <c r="H12" s="8">
         <f>SUM(H2:H11)</f>
@@ -739,7 +749,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8">
         <f>SUM(H12,-G12)</f>
-        <v>-584.48999999999978</v>
+        <v>4.2600000000002183</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -459,10 +459,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,35 +720,86 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44396</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1259</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(C12,-C10)</f>
+        <v>130</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>813.64</v>
+      </c>
+      <c r="H12" s="8">
+        <v>717.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>579</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(C13,-C9)</f>
+        <v>63</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>168.84</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <f>SUM(G2:G11)</f>
         <v>2221.64</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="8">
         <f>SUM(H2:H11)</f>
         <v>2225.9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <f>SUM(H14,-G14)</f>
         <v>4.2600000000002183</v>
       </c>
     </row>

--- a/sputnik/personal/ee/33ee.xlsx
+++ b/sputnik/personal/ee/33ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -92,12 +92,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -150,6 +162,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,303 +523,161 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43386</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44473</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>718</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>1341</v>
+      </c>
+      <c r="D2" s="9">
+        <f>SUM(C2,-C4)</f>
+        <v>82</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>406.71999999999997</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>530</v>
+      </c>
+      <c r="H2" s="8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
-        <v>415</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="2">
+        <v>625</v>
+      </c>
+      <c r="D3" s="9">
+        <f>SUM(C3,-C5)</f>
+        <v>46</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>123.28</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43646</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>44396</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="2">
+        <v>1259</v>
+      </c>
+      <c r="D4" s="9">
+        <f>SUM(C4,-C6)</f>
+        <v>130</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>717.16</v>
+      </c>
       <c r="H4" s="8">
-        <v>514.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>717.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="2">
+        <v>579</v>
+      </c>
+      <c r="D5" s="9">
+        <f>SUM(C5,-C7)</f>
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>72.36</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43720</v>
+        <v>44090</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>932</v>
-      </c>
-      <c r="D6" s="2">
-        <f>C6-C2</f>
-        <v>214</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
-        <v>960.86</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>1206.29</v>
-      </c>
-      <c r="H6" s="8">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>516</v>
-      </c>
-      <c r="D7" s="2">
-        <f>C7-C3</f>
-        <v>101</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>245.43</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44025</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1057</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
-        <v>125</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>588.75</v>
-      </c>
-      <c r="G8" s="8">
-        <f>F8</f>
-        <v>588.75</v>
-      </c>
-      <c r="H8" s="8">
-        <v>588.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>516</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f>F9</f>
-        <v>0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44090</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1129</v>
-      </c>
-      <c r="D10" s="9">
-        <f>SUM(C10,-C8)</f>
-        <v>72</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>339.12</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(F10,F11)</f>
-        <v>426.6</v>
-      </c>
-      <c r="H10" s="8">
-        <v>430.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>552</v>
-      </c>
-      <c r="D11" s="9">
-        <f>SUM(C11,-C7)</f>
-        <v>36</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>87.48</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44396</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1259</v>
-      </c>
-      <c r="D12" s="9">
-        <f>SUM(C12,-C10)</f>
-        <v>130</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
-        <v>644.79999999999995</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(F12,F13)</f>
-        <v>813.64</v>
-      </c>
-      <c r="H12" s="8">
-        <v>717.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>579</v>
-      </c>
-      <c r="D13" s="9">
-        <f>SUM(C13,-C9)</f>
-        <v>63</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2.68</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>168.84</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(G2:G11)</f>
-        <v>2221.64</v>
-      </c>
-      <c r="H14" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>2225.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <f>SUM(H14,-G14)</f>
-        <v>4.2600000000002183</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
